--- a/Galaxy_Cinema.xlsx
+++ b/Galaxy_Cinema.xlsx
@@ -1,31 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Khoa_Bai_Tap_Cybersoft\Phone_Store\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Khoa_Bai_Tap_Cybersoft\Galaxy_Cinema\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5859CACD-FDF2-4C10-A6A4-D9A301C087BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B4B49A-44C1-46DD-96F7-63736EB79BAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53100" yWindow="675" windowWidth="17280" windowHeight="14550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="54495" yWindow="-5265" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mitsg4nKYzU0T1mG+CZd0js0eHfeQ=="/>
     </ext>
@@ -34,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>Tasks Name</t>
   </si>
@@ -51,9 +42,6 @@
 Build</t>
   </si>
   <si>
-    <t>Names</t>
-  </si>
-  <si>
     <t>Start
 Testing</t>
   </si>
@@ -69,145 +57,73 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Layout (admin.html)</t>
-  </si>
-  <si>
-    <t>06/08</t>
-  </si>
-  <si>
-    <t>06/10</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Hứa Thịnh Hưng</t>
-  </si>
-  <si>
-    <t>06/11</t>
-  </si>
-  <si>
-    <t>06/12</t>
-  </si>
-  <si>
-    <t>Giao diện quản trị</t>
-  </si>
-  <si>
-    <t>Layout (index.html)</t>
-  </si>
-  <si>
-    <t>06/13</t>
-  </si>
-  <si>
-    <t>06/14</t>
-  </si>
-  <si>
-    <t>Giao diện trang chủ</t>
-  </si>
-  <si>
-    <t>Add Product (admin.html)</t>
-  </si>
-  <si>
-    <t>06/15</t>
-  </si>
-  <si>
-    <t>06/16</t>
-  </si>
-  <si>
-    <t>Thêm sản phẩm</t>
-  </si>
-  <si>
-    <t>Edit Product (admin.html)</t>
-  </si>
-  <si>
-    <t>06/17</t>
-  </si>
-  <si>
-    <t>06/18</t>
-  </si>
-  <si>
-    <t>Chỉnh sửa sản phẩm</t>
-  </si>
-  <si>
-    <t>Delete Product (admin.html)</t>
-  </si>
-  <si>
-    <t>06/19</t>
-  </si>
-  <si>
-    <t>06/20</t>
-  </si>
-  <si>
-    <t>Xóa sản phẩm</t>
-  </si>
-  <si>
-    <t>Update Product (admin.html)</t>
-  </si>
-  <si>
-    <t>06/21</t>
-  </si>
-  <si>
-    <t>06/22</t>
-  </si>
-  <si>
-    <t>Cập nhật sản phẩm</t>
-  </si>
-  <si>
-    <t>View Product (index.html)</t>
-  </si>
-  <si>
-    <t>06/23</t>
-  </si>
-  <si>
-    <t>06/24</t>
-  </si>
-  <si>
-    <t>Hiển thị sản phẩm ở trang chủ</t>
-  </si>
-  <si>
-    <t>Add to Cart (index.html)</t>
-  </si>
-  <si>
-    <t>06/25</t>
-  </si>
-  <si>
-    <t>06/26</t>
-  </si>
-  <si>
-    <t>Thêm vào giỏ hàng</t>
-  </si>
-  <si>
-    <t>View Cart (index.html)</t>
-  </si>
-  <si>
-    <t>06/27</t>
-  </si>
-  <si>
-    <t>06/28</t>
-  </si>
-  <si>
-    <t>Xem giỏ hàng</t>
-  </si>
-  <si>
-    <t>Checkout (index.html)</t>
-  </si>
-  <si>
-    <t>06/29</t>
-  </si>
-  <si>
-    <t>06/30</t>
-  </si>
-  <si>
-    <t>07/01</t>
-  </si>
-  <si>
-    <t>Thanh toán đơn hàng</t>
-  </si>
-  <si>
     <t>Names2</t>
   </si>
   <si>
-    <t>Bấm icon người header để vào admin</t>
+    <t>Layout home - admin</t>
+  </si>
+  <si>
+    <t>Router home - admin</t>
+  </si>
+  <si>
+    <t>Login admin</t>
+  </si>
+  <si>
+    <t>Dasboard</t>
+  </si>
+  <si>
+    <t>Quản lý phim</t>
+  </si>
+  <si>
+    <t>Quản lý người dùng</t>
+  </si>
+  <si>
+    <t>Quản lý rạp chiếu</t>
+  </si>
+  <si>
+    <t>Dev 1 : Hua Hưng</t>
+  </si>
+  <si>
+    <t>Cũng cũng chị giang có gì xem chỉ bảo em cảm ơn</t>
+  </si>
+  <si>
+    <t>20/07</t>
+  </si>
+  <si>
+    <t>23/07</t>
+  </si>
+  <si>
+    <t>26/07</t>
+  </si>
+  <si>
+    <t>29/07</t>
+  </si>
+  <si>
+    <t>Kết thúc 23/07</t>
+  </si>
+  <si>
+    <t>End Bulid</t>
+  </si>
+  <si>
+    <t>Kết thúc 26/07</t>
+  </si>
+  <si>
+    <t>Kết thúc 29/07</t>
+  </si>
+  <si>
+    <t>Kết thúc 15/08/2025</t>
+  </si>
+  <si>
+    <t>Kết thúc 01/08/2025</t>
+  </si>
+  <si>
+    <t>Kết thúc 03/08/2025</t>
+  </si>
+  <si>
+    <t>Kết thúc 07/08/2025</t>
+  </si>
+  <si>
+    <t>Kết thúc 10/08/2025</t>
   </si>
 </sst>
 </file>
@@ -217,7 +133,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,13 +157,47 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF363636"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -270,6 +220,16 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor rgb="FFFFC000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -321,10 +281,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -342,14 +304,200 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="16">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -373,176 +521,11 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <border outline="0">
         <top style="medium">
           <color rgb="FF000000"/>
         </top>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -599,69 +582,20 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>277072</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>86096</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Hình ảnh 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C7674B7-48CF-E091-DD51-65FD0ADD0FC6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="3686175"/>
-          <a:ext cx="6068272" cy="2657846"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{553B83FB-4E2E-4DE4-A381-C45D5F7F674F}" name="Table1" displayName="Table1" ref="A1:J12" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{553B83FB-4E2E-4DE4-A381-C45D5F7F674F}" name="Table1" displayName="Table1" ref="A1:J12" totalsRowShown="0" headerRowDxfId="15" dataDxfId="0" headerRowBorderDxfId="14" tableBorderDxfId="13">
   <autoFilter ref="A1:J12" xr:uid="{553B83FB-4E2E-4DE4-A381-C45D5F7F674F}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{988354D6-EE61-47C7-9E01-E0CBFB29A404}" name="Tasks Name" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{3CA8D2D2-55D5-4D51-A39D-650748B4DB33}" name="Start_x000a_Build" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{CF4922CC-E48D-4A39-B289-01168576CEAA}" name="Finish_x000a_Build" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{4F3483EE-0D65-4725-B040-B40728B4A993}" name="% _x000a_Build" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{5F0121C4-1B4C-46BB-8CF5-DA40CCE88CFC}" name="Names" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{46A53806-11E0-42D7-836D-588D2C6E775C}" name="Start_x000a_Testing" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{C1F8AD44-35C9-4D8A-B03B-435034594FCE}" name="Finish_x000a_Testing" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{43B6A499-B331-47CE-978E-9C9F731A9CAF}" name="% _x000a_Testing" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{0784A804-5C4F-468D-B505-9FFF37DB9CD8}" name="Names2" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{15F03DF7-F7CE-4624-B4DA-A2EEABDB3B8A}" name="Notes" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{988354D6-EE61-47C7-9E01-E0CBFB29A404}" name="Tasks Name" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{3CA8D2D2-55D5-4D51-A39D-650748B4DB33}" name="Start_x000a_Build" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{CF4922CC-E48D-4A39-B289-01168576CEAA}" name="Finish_x000a_Build" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{4F3483EE-0D65-4725-B040-B40728B4A993}" name="% _x000a_Build" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{5F0121C4-1B4C-46BB-8CF5-DA40CCE88CFC}" name="End Bulid" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{46A53806-11E0-42D7-836D-588D2C6E775C}" name="Start_x000a_Testing" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{C1F8AD44-35C9-4D8A-B03B-435034594FCE}" name="Finish_x000a_Testing" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{43B6A499-B331-47CE-978E-9C9F731A9CAF}" name="% _x000a_Testing" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{0784A804-5C4F-468D-B505-9FFF37DB9CD8}" name="Names2" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{15F03DF7-F7CE-4624-B4DA-A2EEABDB3B8A}" name="Notes" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -870,16 +804,18 @@
   </sheetPr>
   <dimension ref="A1:J977"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.59765625" customWidth="1"/>
-    <col min="2" max="4" width="7.59765625" customWidth="1"/>
+    <col min="2" max="2" width="14.8984375" customWidth="1"/>
+    <col min="3" max="3" width="17.69921875" customWidth="1"/>
+    <col min="4" max="4" width="12.59765625" customWidth="1"/>
     <col min="5" max="5" width="22.5" customWidth="1"/>
-    <col min="6" max="6" width="7.59765625" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
     <col min="7" max="7" width="9.19921875" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
     <col min="9" max="9" width="29.3984375" customWidth="1"/>
@@ -900,381 +836,380 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="2" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="13">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="7">
+        <v>1</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="28.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="B3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="13">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9">
+        <v>1</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="7">
+        <v>1</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="10"/>
+    </row>
+    <row r="4" spans="1:10" ht="25.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="13">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="7">
+        <v>1</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="10"/>
+    </row>
+    <row r="5" spans="1:10" ht="26.4" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="B5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="13">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="10"/>
+    </row>
+    <row r="6" spans="1:10" ht="29.4" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="7" t="s">
+      <c r="B6" s="12">
+        <v>45665</v>
+      </c>
+      <c r="C6" s="13">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="I6" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="14.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="17.399999999999999" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>32</v>
-      </c>
+      <c r="J6" s="10"/>
     </row>
     <row r="7" spans="1:10" ht="26.4" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="A7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>36</v>
-      </c>
+      <c r="B7" s="12">
+        <v>45724</v>
+      </c>
+      <c r="C7" s="13">
+        <v>1</v>
+      </c>
+      <c r="D7" s="8">
+        <v>1</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="10"/>
     </row>
-    <row r="8" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>40</v>
-      </c>
+    <row r="8" spans="1:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="12">
+        <v>45846</v>
+      </c>
+      <c r="C8" s="13">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="7">
+        <v>1</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>44</v>
-      </c>
+    <row r="9" spans="1:10" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="12">
+        <v>45938</v>
+      </c>
+      <c r="C9" s="13">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8">
+        <v>1</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="7">
+        <v>1</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>48</v>
-      </c>
+    <row r="10" spans="1:10" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>53</v>
-      </c>
+    <row r="11" spans="1:10" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
+    <row r="12" spans="1:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
-        <v>55</v>
-      </c>
+    <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
     </row>
-    <row r="19" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+    </row>
+    <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+    </row>
+    <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+    </row>
+    <row r="17" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+    </row>
+    <row r="18" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6"/>
+    </row>
+    <row r="19" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2223,20 +2158,19 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D2 D4:D11 H4:H11">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="greaterThan">
       <formula>0.99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="greaterThan">
       <formula>0.99</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>